--- a/TestMatrix.xlsx
+++ b/TestMatrix.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Assignee</t>
   </si>
@@ -48,17 +48,23 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>GoogLeNet</t>
-  </si>
-  <si>
     <t>AlexNet</t>
+  </si>
+  <si>
+    <t>GoogLeNet Cars</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>15K, 30K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,6 +100,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -112,34 +125,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,24 +490,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -503,171 +524,210 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D3">
         <v>512</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="7"/>
       <c r="D4">
         <v>512</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="7"/>
       <c r="D5">
         <v>256</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="7"/>
       <c r="D6">
         <v>256</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="7"/>
       <c r="D7">
         <v>128</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="7"/>
       <c r="D8">
         <v>128</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D9">
         <v>512</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="5"/>
       <c r="D10">
         <v>512</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="5"/>
       <c r="D11">
         <v>256</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="5"/>
       <c r="D12">
         <v>256</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="5"/>
       <c r="D13">
         <v>128</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14">
         <v>6</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="5"/>
       <c r="D14">
         <v>128</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="1">
         <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/TestMatrix.xlsx
+++ b/TestMatrix.xlsx
@@ -45,12 +45,6 @@
     <t>Testing Matrix</t>
   </si>
   <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>AlexNet</t>
-  </si>
-  <si>
     <t>GoogLeNet Cars</t>
   </si>
   <si>
@@ -58,6 +52,12 @@
   </si>
   <si>
     <t>15K, 30K</t>
+  </si>
+  <si>
+    <t>Crop Size</t>
+  </si>
+  <si>
+    <t>Flickr</t>
   </si>
 </sst>
 </file>
@@ -125,8 +125,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -145,22 +147,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -493,19 +497,19 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C9" sqref="C9:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -524,10 +528,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -537,8 +541,8 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="D3">
         <v>512</v>
@@ -547,7 +551,10 @@
         <v>0.05</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -555,7 +562,7 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="5"/>
       <c r="D4">
         <v>512</v>
       </c>
@@ -563,7 +570,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -571,7 +581,7 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="5"/>
       <c r="D5">
         <v>256</v>
       </c>
@@ -579,7 +589,10 @@
         <v>0.05</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -587,7 +600,7 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="5"/>
       <c r="D6">
         <v>256</v>
       </c>
@@ -595,7 +608,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -603,7 +619,7 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="5"/>
       <c r="D7">
         <v>128</v>
       </c>
@@ -611,7 +627,10 @@
         <v>0.05</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -619,7 +638,7 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="5"/>
       <c r="D8">
         <v>128</v>
       </c>
@@ -627,7 +646,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -637,8 +659,8 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D9">
         <v>512</v>
@@ -647,7 +669,10 @@
         <v>0.05</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -655,7 +680,7 @@
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="6"/>
       <c r="D10">
         <v>512</v>
       </c>
@@ -663,7 +688,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -671,7 +699,7 @@
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="6"/>
       <c r="D11">
         <v>256</v>
       </c>
@@ -679,7 +707,10 @@
         <v>0.05</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -687,7 +718,7 @@
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="6"/>
       <c r="D12">
         <v>256</v>
       </c>
@@ -695,7 +726,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -703,7 +737,7 @@
       <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="6"/>
       <c r="D13">
         <v>128</v>
       </c>
@@ -711,7 +745,10 @@
         <v>0.05</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -719,7 +756,7 @@
       <c r="B14">
         <v>6</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="6"/>
       <c r="D14">
         <v>128</v>
       </c>
@@ -727,7 +764,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/TestMatrix.xlsx
+++ b/TestMatrix.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Assignee</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Flickr</t>
+  </si>
+  <si>
+    <t>Accuracy (Test)</t>
+  </si>
+  <si>
+    <t>Accuracy (New)</t>
   </si>
 </sst>
 </file>
@@ -125,8 +131,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -156,15 +164,17 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,15 +504,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C14"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="8" max="9" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
@@ -511,7 +524,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -533,8 +546,14 @@
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -545,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E3" s="1">
         <v>0.05</v>
@@ -554,17 +573,17 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="4"/>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -573,17 +592,17 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="4"/>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E5" s="1">
         <v>0.05</v>
@@ -592,17 +611,17 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="4"/>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -611,48 +630,24 @@
         <v>10</v>
       </c>
       <c r="G6">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="4"/>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7">
-        <v>128</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="4"/>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8">
-        <v>128</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -663,7 +658,7 @@
         <v>12</v>
       </c>
       <c r="D9">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E9" s="1">
         <v>0.05</v>
@@ -672,17 +667,17 @@
         <v>10</v>
       </c>
       <c r="G9">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -691,17 +686,17 @@
         <v>10</v>
       </c>
       <c r="G10">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E11" s="1">
         <v>0.05</v>
@@ -710,17 +705,17 @@
         <v>10</v>
       </c>
       <c r="G11">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="3"/>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -729,46 +724,22 @@
         <v>10</v>
       </c>
       <c r="G12">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="3"/>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13">
-        <v>128</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="3"/>
       <c r="B14">
         <v>6</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14">
-        <v>128</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>124</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/TestMatrix.xlsx
+++ b/TestMatrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="-40" yWindow="2280" windowWidth="25600" windowHeight="9560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Assignee</t>
   </si>
@@ -60,10 +60,22 @@
     <t>Flickr</t>
   </si>
   <si>
-    <t>Accuracy (Test)</t>
-  </si>
-  <si>
-    <t>Accuracy (New)</t>
+    <t>Learning Rate</t>
+  </si>
+  <si>
+    <t>Step Size</t>
+  </si>
+  <si>
+    <t>15K Accuracy (Test)</t>
+  </si>
+  <si>
+    <t>15K Accuracy (New)</t>
+  </si>
+  <si>
+    <t>30K Accuracy (Test)</t>
+  </si>
+  <si>
+    <t>30K Accuracy (New)</t>
   </si>
 </sst>
 </file>
@@ -131,7 +143,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -143,8 +155,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -163,18 +177,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,18 +521,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="8" max="9" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
@@ -524,7 +548,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -552,8 +576,20 @@
       <c r="I2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -575,8 +611,12 @@
       <c r="G3">
         <v>224</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="4"/>
       <c r="B4">
         <v>2</v>
@@ -594,8 +634,12 @@
       <c r="G4">
         <v>224</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="4"/>
       <c r="B5">
         <v>3</v>
@@ -613,8 +657,12 @@
       <c r="G5">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="4"/>
       <c r="B6">
         <v>4</v>
@@ -632,22 +680,34 @@
       <c r="G6">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="4"/>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="4"/>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -669,8 +729,26 @@
       <c r="G9">
         <v>224</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="H9">
+        <v>1E-4</v>
+      </c>
+      <c r="I9">
+        <v>7500</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.80427653154900003</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.80690017053700003</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="3"/>
       <c r="B10">
         <v>2</v>
@@ -688,8 +766,12 @@
       <c r="G10">
         <v>224</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="3"/>
       <c r="B11">
         <v>3</v>
@@ -707,8 +789,12 @@
       <c r="G11">
         <v>120</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="3"/>
       <c r="B12">
         <v>4</v>
@@ -726,15 +812,19 @@
       <c r="G12">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="3"/>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:13">
       <c r="A14" s="3"/>
       <c r="B14">
         <v>6</v>
